--- a/progettazione/testCase.xlsx
+++ b/progettazione/testCase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="178">
   <si>
     <t>Test case</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Controllo che possa eliminare gli utenti normali e che non possa autoeliminarsi</t>
   </si>
   <si>
-    <t>Controllo che possa cambiare la  password agli utenti normali e la prorpia.</t>
-  </si>
-  <si>
     <t>Controllo che possa importare il file csv contenente i dati</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>REQ - 005</t>
   </si>
   <si>
-    <t>Verifico che la registrazione avvenga secondo quando indica il QdC</t>
-  </si>
-  <si>
     <t>Solo gli amministratori, master e admin, possono registrare account, le informazioni per la registrazione sono email e password, si deve poter cambiare la password randomica momentanea assegnata nel momento della registrazione</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>Pagina gestione account</t>
   </si>
   <si>
-    <t>Verifico che gli amministratori abbia tutti i permessi necessari per la gestione degli account</t>
-  </si>
-  <si>
     <t>Ha accesso completo al sito web, può creare, modificare, eliminare dati dal sito web, può rendere gli utenti normali degli admin può eliminare gli utenti normali, non può autoeliminarsi, può cambiare la password, può modificare la password agli utenti normali, può importare il file csv, può creare report e pdf</t>
   </si>
   <si>
@@ -347,7 +338,226 @@
     <t>La pagina deve essere accessibile solamente agli amministratori, bisogna avere una tabella contenente tutte le informazioni riguardante gli account che può essere filtrata tramite una barra di ricerca, l'amministratore può eliminare gli utenti normali mentre il master sia gli amministratori che gli utenti normali, l'amministratore può modificare la password e i permessi agli utenti normali mentre il master sia agli amministratori che agli utenti normali, nessuno può autoeliminarsi e per ogni elimazione prevedere una conferma</t>
   </si>
   <si>
-    <t xml:space="preserve">Controllo che sia accessibile solamente </t>
+    <t>Verifico che in questa pagina ci sia la possibilità di gestire gli account solamente da parte degli amministratori e master</t>
+  </si>
+  <si>
+    <t>Controllo che possa cambiare la  password agli utenti normali e la propria.</t>
+  </si>
+  <si>
+    <t>Controllo che ci sia una tabella con tutte le informazioni riguardante gli account e che possa essere filtrata tramite una barra di ricerca</t>
+  </si>
+  <si>
+    <t>Mi assicuro che gli amministratori possano eliminare e modificare i permessi e la password solamente agli utenti normali</t>
+  </si>
+  <si>
+    <t>Mi assicuro che il master possa eliminare e modificare i permessi e la password degli utenti normali e degli amministratori</t>
+  </si>
+  <si>
+    <t>Mi assicuro che nessuno possa autoliminarsi</t>
+  </si>
+  <si>
+    <t>Controllo che prima di effettuare davvero l'eliminazione venga chiesta una conferma</t>
+  </si>
+  <si>
+    <t>Nella pagina di gestione account gli amministratori, admin e master, hanno la possibilità di gestire gli altri account nel modo migliore possibile</t>
+  </si>
+  <si>
+    <t>TC - 012</t>
+  </si>
+  <si>
+    <t>REQ - 012</t>
+  </si>
+  <si>
+    <t>Pagina delle email</t>
+  </si>
+  <si>
+    <t>Verifico che questa pagina mi permetta di inviare email e di creare gruppi, che dovranno essere salvati sul database, a cui posso inviare email</t>
+  </si>
+  <si>
+    <t>Controllo che questa pagina sia accessibile solamente agli amministratori (admin e master)</t>
+  </si>
+  <si>
+    <t>Controllo che la pagina si accessibile solamente agli amministratori (admin e master)</t>
+  </si>
+  <si>
+    <t>Controllo che l'invio delle email avvenga in modo corretto</t>
+  </si>
+  <si>
+    <t>Controllo di riuscire a creare dei gruppi di email a cui in seguito inviare delle email</t>
+  </si>
+  <si>
+    <t>Controllo di poter modificare i gruppi in seguito alla creazione</t>
+  </si>
+  <si>
+    <t>Controllo di aver salvato i gruppi sul database</t>
+  </si>
+  <si>
+    <t>Controllo di avere uno storico funzionante delle email inviate</t>
+  </si>
+  <si>
+    <t>Controllo che per l'eliminazione delle email e dei gruppi venga chiesta una conferma</t>
+  </si>
+  <si>
+    <t>Nella pagina della gestione delle email l'utente amministratore o master ha la possibilità di creare gruppi, inviare email e visualizzare le email inviate</t>
+  </si>
+  <si>
+    <t>TC - 013</t>
+  </si>
+  <si>
+    <t>REQ - 013</t>
+  </si>
+  <si>
+    <t>Importazione file csv</t>
+  </si>
+  <si>
+    <t>Verifico che l'importazione del file csv avvenga nel modo più corretto possibile e che questa azione sia permessa solo agli amministratori</t>
+  </si>
+  <si>
+    <t>Controllo che l'importazione avvenga solamente da parte degli admin e del master</t>
+  </si>
+  <si>
+    <t>Controllo che la formattazione dei dati nel momento dell'inserimento sia corretta e che il contratto sia formattato nnnn.nnnn</t>
+  </si>
+  <si>
+    <t>Controllo di salvare correttamente il file csv sul server</t>
+  </si>
+  <si>
+    <t>L'importazione del file csv avviene avviene correttamente  e l'utente è in grado di scaricare e visualizzare in pdf il file csv importato</t>
+  </si>
+  <si>
+    <t>Gestione dei dati</t>
+  </si>
+  <si>
+    <t>TC - 014</t>
+  </si>
+  <si>
+    <t>REQ - 014</t>
+  </si>
+  <si>
+    <t>Verifico che il master possa eliminare i dati definitivamente dal database e ripristinarne la visione sul sito</t>
+  </si>
+  <si>
+    <t>Prevedere l'eliminazione definitiva dei dati eliminati e ripristino di essi solo per il master</t>
+  </si>
+  <si>
+    <t>Controllo che i dati possano essere ripristinati</t>
+  </si>
+  <si>
+    <t>Controllo che i dati possano essere eliminati definitivamente gestendo correttamente le foreign key</t>
+  </si>
+  <si>
+    <t>Controllo che questa azioni siano disponibili solo al master</t>
+  </si>
+  <si>
+    <t>L'utente master può ripristinare la visione dei dati ed eliminarli definitivamente dal database</t>
+  </si>
+  <si>
+    <t>TC - 015</t>
+  </si>
+  <si>
+    <t>Permessi delle pagine</t>
+  </si>
+  <si>
+    <t>Controllo che ogni utente abbia accesso solamente alle pagine a lui permesse</t>
+  </si>
+  <si>
+    <t>No Req.</t>
+  </si>
+  <si>
+    <t>Controllo che la pagina di login sia accessibile a tutti senza aver effettuato il login</t>
+  </si>
+  <si>
+    <t>Controllo che la pagina di password dimenticata sia accessibile a tutti senza aver effettuato il login</t>
+  </si>
+  <si>
+    <t>Controllo che la pagina di conferma password sia accessibile a tutti senza aver effettuato il login</t>
+  </si>
+  <si>
+    <t>Controllo che la pagina di cambio password sia accessibile solamente dopo aver effettuato il login</t>
+  </si>
+  <si>
+    <t>Controllo che le pagine "apprendista", "formatore" e "datore" siano accessibili a tutti gli utenti loggati con visione diverse per le varie gestioni e che possa essere effettutato un pdf della pagina web</t>
+  </si>
+  <si>
+    <t>Controllo che le pagine "apprendista dettaglio" e  "formatore dettaglio" siano accessibili a tutti gli utenti loggati e che possa essere effettuato il pdf della pagina</t>
+  </si>
+  <si>
+    <t>La pagina di "login", "password dimenticata" e "conferma cambio password"  sono accessibili a tutti e non richiedono il login per essere viste. La pagina "cambio password" è accessibile solamente dopo aver fatto il primo login e dopo aver richiesto una nuova password. Le pagine "apprendista", "apprendista dettagli", "formatore", "formatore dettaglio", "datore", "apprendisti PDF", "apprendista PDF", "formatori PDF",  "formatore PDF" e "datori PDF" sono accessibili a tutti quelli loggati, ovvero utenti normali, admin e master. Le pagine "aprendista inserimento", "apprendista modifica", "formatore inserimento", "formatore modifica", "datore inserimento", "datore modifica", "gestione email", "storico email", "gestione account", "gestione file csv" e "file csv PDF" sono accessibili solamente agli admin e al master. La pagina "gestione dati" è accessibile solamente al master. Le voci del menu sono visibile agli utenti solo se hanno permessi di visione della ominima pagina web.</t>
+  </si>
+  <si>
+    <t>Controllo che le pagine "gestione account", "gestione email", "storico email"  siano accessibile solamente agli admin e al master</t>
+  </si>
+  <si>
+    <t>Controllo che la pagina di gestione file csv sia accessibile agli admin e al master così come il pdf del file csv</t>
+  </si>
+  <si>
+    <t>Controllo che la pagina di gestione dati sia accessibile solamente al master</t>
+  </si>
+  <si>
+    <t>Controllo che le pagine "apprendista modifica", "apprendista inserimento", "formatore modifica", "formatore inserimento",  "datore modifica", "datore inserimento" siano accessibili solamente agli admin e al master</t>
+  </si>
+  <si>
+    <t>Ogni utente ha accesso solamente alle pagina che deve poter visualizzare</t>
+  </si>
+  <si>
+    <t>Nome test</t>
+  </si>
+  <si>
+    <t>Risultato</t>
+  </si>
+  <si>
+    <t>Osservazioni</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>Verifico che la registrazione avvenga secondo quanto indica il QdC</t>
+  </si>
+  <si>
+    <t>Controllo che gli utenti, admin e master, possano scaricare il file csv e visualizzano in pdf</t>
   </si>
 </sst>
 </file>
@@ -376,7 +586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +596,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,6 +853,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -658,12 +865,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -676,55 +913,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,17 +1239,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I118"/>
+  <dimension ref="B1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107:H108"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55:O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1031,12 +1267,12 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
@@ -1046,82 +1282,82 @@
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:9" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -1138,27 +1374,27 @@
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
@@ -1179,12 +1415,12 @@
       <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="E14" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
@@ -1194,87 +1430,87 @@
         <v>20</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="C17" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
+      <c r="C18" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
-      <c r="C20" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
       <c r="C22" s="13" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1285,7 +1521,7 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1295,27 +1531,27 @@
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
-      <c r="C24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="C24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="C25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1323,107 +1559,107 @@
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="E27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="C29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="29"/>
     </row>
     <row r="30" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="29"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="C31" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
-      <c r="C32" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="C32" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
-      <c r="C33" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+      <c r="C33" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="16"/>
-      <c r="C34" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="C34" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="16"/>
       <c r="C35" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -1434,7 +1670,7 @@
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="16"/>
       <c r="C36" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -1444,27 +1680,27 @@
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
-      <c r="C37" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
+      <c r="C37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
+      <c r="C38" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -1472,107 +1708,107 @@
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
+      <c r="E40" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="29"/>
-    </row>
-    <row r="43" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="29"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
+      <c r="C44" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
-      <c r="C45" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
+      <c r="C45" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
-      <c r="C46" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
+      <c r="C46" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
+      <c r="C47" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -1580,364 +1816,420 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-    </row>
-    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+    </row>
+    <row r="53" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="C53" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
       <c r="H53" s="29"/>
     </row>
-    <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="C54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
       <c r="H54" s="29"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
+      <c r="M55" t="s">
+        <v>158</v>
+      </c>
+      <c r="N55" t="s">
+        <v>159</v>
+      </c>
+      <c r="O55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="9"/>
+      <c r="C56" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="35"/>
+      <c r="M56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="9"/>
+      <c r="C57" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="35"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="9"/>
-      <c r="C56" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="9"/>
-      <c r="C57" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="35"/>
+      <c r="M57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="32"/>
-    </row>
-    <row r="59" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="M58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
-    </row>
-    <row r="61" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="36"/>
+      <c r="M60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-    </row>
-    <row r="62" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="37"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39"/>
+      <c r="M61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="C62" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="29"/>
-    </row>
-    <row r="63" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+      <c r="C63" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="29"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35"/>
-    </row>
-    <row r="65" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="32"/>
+      <c r="M64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
-    </row>
-    <row r="66" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="M65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="25"/>
-    </row>
-    <row r="68" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E67" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="36"/>
+      <c r="M67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-    </row>
-    <row r="69" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68" s="37"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="39"/>
+      <c r="M68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="40"/>
-    </row>
-    <row r="70" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="M69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="C70" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
       <c r="H70" s="29"/>
-    </row>
-    <row r="71" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="35"/>
-    </row>
-    <row r="72" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="32"/>
+    </row>
+    <row r="72" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="32"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
-    </row>
-    <row r="75" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E74" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="36"/>
+    </row>
+    <row r="75" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
+    </row>
+    <row r="76" spans="2:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
       <c r="H76" s="29"/>
     </row>
-    <row r="77" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="41" t="s">
+    <row r="77" spans="2:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
+      <c r="C77" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
       <c r="H77" s="29"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="35"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="32"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
@@ -1945,62 +2237,62 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
-      <c r="C80" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="19"/>
+      <c r="C80" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
-      <c r="C81" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="19"/>
+      <c r="C81" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
-      <c r="C82" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="19"/>
+      <c r="C82" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
-      <c r="C83" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="19"/>
+      <c r="C83" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="32"/>
+      <c r="C84" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
     </row>
     <row r="85" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="2:8" x14ac:dyDescent="0.3">
@@ -2008,74 +2300,74 @@
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="25"/>
+      <c r="E86" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="36"/>
     </row>
     <row r="87" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="39"/>
+    </row>
+    <row r="88" spans="2:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
-    </row>
-    <row r="88" spans="2:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="29"/>
-    </row>
-    <row r="89" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
       <c r="H89" s="29"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="35"/>
+      <c r="C90" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -2085,49 +2377,49 @@
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
-      <c r="C92" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="19"/>
+      <c r="C92" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
-      <c r="C93" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="19"/>
+      <c r="C93" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="35"/>
     </row>
     <row r="94" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
-      <c r="C94" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="19"/>
+      <c r="C94" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="32"/>
+      <c r="C95" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="26"/>
     </row>
     <row r="96" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
@@ -2135,74 +2427,74 @@
         <v>0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="25"/>
+      <c r="E97" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="36"/>
     </row>
     <row r="98" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="28"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="39"/>
     </row>
     <row r="99" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+      <c r="C99" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
       <c r="H99" s="29"/>
     </row>
     <row r="100" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+      <c r="C100" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
       <c r="H100" s="29"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="35"/>
+      <c r="C101" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="32"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -2212,38 +2504,38 @@
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
-      <c r="C103" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="19"/>
+      <c r="C103" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
     </row>
     <row r="104" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
-      <c r="C104" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="19"/>
+      <c r="C104" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="32"/>
+      <c r="C105" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="26"/>
     </row>
     <row r="106" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
@@ -2251,107 +2543,107 @@
         <v>0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="42"/>
+      <c r="E107" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="45"/>
     </row>
     <row r="108" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="45"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="48"/>
     </row>
     <row r="109" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="29"/>
+    </row>
+    <row r="110" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="29"/>
-    </row>
-    <row r="110" spans="2:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
       <c r="H110" s="29"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C111" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="35"/>
+      <c r="C111" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="32"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
-      <c r="C112" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="19"/>
+      <c r="C112" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="35"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
-      <c r="C113" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="19"/>
+      <c r="C113" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="35"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="16"/>
-      <c r="C114" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="19"/>
+      <c r="C114" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="35"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="16"/>
       <c r="C115" s="13" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -2359,10 +2651,10 @@
       <c r="G115" s="14"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B116" s="16"/>
+    <row r="116" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="5"/>
       <c r="C116" s="13" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -2371,47 +2663,664 @@
       <c r="H116" s="15"/>
     </row>
     <row r="117" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="5"/>
-      <c r="C117" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="22"/>
-    </row>
-    <row r="118" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="5" t="s">
+      <c r="B117" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C118" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="32"/>
+      <c r="C117" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="26"/>
+    </row>
+    <row r="118" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="45"/>
+    </row>
+    <row r="120" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="48"/>
+    </row>
+    <row r="121" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="51"/>
+    </row>
+    <row r="122" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="51"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="32"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124" s="9"/>
+      <c r="C124" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="35"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="9"/>
+      <c r="C125" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="35"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126" s="16"/>
+      <c r="C126" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="35"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127" s="16"/>
+      <c r="C127" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="19"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128" s="16"/>
+      <c r="C128" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="5"/>
+      <c r="C129" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="26"/>
+    </row>
+    <row r="131" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="45"/>
+    </row>
+    <row r="133" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="48"/>
+    </row>
+    <row r="134" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="29"/>
+    </row>
+    <row r="135" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="29"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="32"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" s="9"/>
+      <c r="C137" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="35"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138" s="9"/>
+      <c r="C138" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="35"/>
+    </row>
+    <row r="139" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="5"/>
+      <c r="C139" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="35"/>
+    </row>
+    <row r="140" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="26"/>
+    </row>
+    <row r="141" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="45"/>
+    </row>
+    <row r="143" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="48"/>
+    </row>
+    <row r="144" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="29"/>
+    </row>
+    <row r="145" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145" s="28"/>
+      <c r="E145" s="28"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="29"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="32"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" s="9"/>
+      <c r="C147" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="35"/>
+    </row>
+    <row r="148" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="5"/>
+      <c r="C148" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="35"/>
+    </row>
+    <row r="149" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="26"/>
+    </row>
+    <row r="150" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="45"/>
+    </row>
+    <row r="152" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="48"/>
+    </row>
+    <row r="153" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D153" s="50"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="51"/>
+    </row>
+    <row r="154" spans="2:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="51"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="32"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156" s="9"/>
+      <c r="C156" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34"/>
+      <c r="F156" s="34"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="35"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" s="9"/>
+      <c r="C157" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="35"/>
+    </row>
+    <row r="158" spans="2:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="16"/>
+      <c r="C158" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D158" s="54"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="54"/>
+      <c r="G158" s="54"/>
+      <c r="H158" s="55"/>
+    </row>
+    <row r="159" spans="2:8" s="52" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="16"/>
+      <c r="C159" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D159" s="54"/>
+      <c r="E159" s="54"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="54"/>
+      <c r="H159" s="55"/>
+    </row>
+    <row r="160" spans="2:8" s="52" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="16"/>
+      <c r="C160" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D160" s="54"/>
+      <c r="E160" s="54"/>
+      <c r="F160" s="54"/>
+      <c r="G160" s="54"/>
+      <c r="H160" s="55"/>
+    </row>
+    <row r="161" spans="2:8" s="52" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="16"/>
+      <c r="C161" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="54"/>
+      <c r="H161" s="55"/>
+    </row>
+    <row r="162" spans="2:8" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="16"/>
+      <c r="C162" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D162" s="54"/>
+      <c r="E162" s="54"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="54"/>
+      <c r="H162" s="55"/>
+    </row>
+    <row r="163" spans="2:8" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="16"/>
+      <c r="C163" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" s="54"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="55"/>
+    </row>
+    <row r="164" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="5"/>
+      <c r="C164" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="19"/>
+    </row>
+    <row r="165" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="C117:H117"/>
-    <mergeCell ref="C118:H118"/>
-    <mergeCell ref="C110:H110"/>
-    <mergeCell ref="C111:H111"/>
-    <mergeCell ref="C112:H112"/>
-    <mergeCell ref="C113:H113"/>
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C105:H105"/>
-    <mergeCell ref="E107:H108"/>
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="E97:H98"/>
-    <mergeCell ref="C99:H99"/>
-    <mergeCell ref="C100:H100"/>
-    <mergeCell ref="C101:H101"/>
-    <mergeCell ref="C103:H103"/>
+  <mergeCells count="120">
+    <mergeCell ref="C161:H161"/>
+    <mergeCell ref="C162:H162"/>
+    <mergeCell ref="C163:H163"/>
+    <mergeCell ref="C158:H158"/>
+    <mergeCell ref="C159:H159"/>
+    <mergeCell ref="C160:H160"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C154:H154"/>
+    <mergeCell ref="C155:H155"/>
+    <mergeCell ref="C156:H156"/>
+    <mergeCell ref="C157:H157"/>
+    <mergeCell ref="C148:H148"/>
+    <mergeCell ref="C149:H149"/>
+    <mergeCell ref="E151:H152"/>
+    <mergeCell ref="C153:H153"/>
+    <mergeCell ref="E142:H143"/>
+    <mergeCell ref="C144:H144"/>
+    <mergeCell ref="C145:H145"/>
+    <mergeCell ref="C146:H146"/>
+    <mergeCell ref="C147:H147"/>
+    <mergeCell ref="C136:H136"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="C138:H138"/>
+    <mergeCell ref="C139:H139"/>
+    <mergeCell ref="C140:H140"/>
+    <mergeCell ref="C126:H126"/>
+    <mergeCell ref="C130:H130"/>
+    <mergeCell ref="E132:H133"/>
+    <mergeCell ref="C134:H134"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="C121:H121"/>
+    <mergeCell ref="C122:H122"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:H124"/>
+    <mergeCell ref="C125:H125"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="E119:H120"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="E27:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="E40:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="E60:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="E74:H75"/>
     <mergeCell ref="C93:H93"/>
     <mergeCell ref="C94:H94"/>
     <mergeCell ref="C95:H95"/>
@@ -2425,62 +3334,21 @@
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="C90:H90"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="E74:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="E60:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="E40:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="E27:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C105:H105"/>
+    <mergeCell ref="E107:H108"/>
+    <mergeCell ref="C109:H109"/>
+    <mergeCell ref="E97:H98"/>
+    <mergeCell ref="C99:H99"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C117:H117"/>
+    <mergeCell ref="C110:H110"/>
+    <mergeCell ref="C111:H111"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C113:H113"/>
+    <mergeCell ref="C114:H114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
